--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +301,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="173">
   <si>
     <t>Year</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
-  </si>
-  <si>
-    <t>Brass</t>
   </si>
   <si>
     <t>20cents</t>
@@ -493,12 +487,6 @@
 strip along the edge</t>
   </si>
   <si>
-    <t>Juan Carlos I</t>
-  </si>
-  <si>
-    <t>Felipe VI</t>
-  </si>
-  <si>
     <t>722.000.000</t>
   </si>
   <si>
@@ -899,6 +887,24 @@
   </si>
   <si>
     <t>300.000</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo - "M"</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Obv: Cathedral of Santiago de Compostella</t>
+  </si>
+  <si>
+    <t>Obv: Miguel de Cervantes</t>
+  </si>
+  <si>
+    <t>Obv: Juan Carlos I</t>
+  </si>
+  <si>
+    <t>Obv: Felipe VI</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1065,13 +1071,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1154,15 +1190,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1267,6 +1294,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1298,9 +1334,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="15"/>
+    <tableColumn id="2" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1571,19 +1607,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
@@ -1604,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1618,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1630,14 +1665,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E3" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1652,14 +1689,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1674,14 +1713,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E5" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1696,14 +1737,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1719,14 +1762,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1742,14 +1787,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E8" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1764,14 +1811,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1786,14 +1835,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1808,14 +1859,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1830,14 +1883,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -1852,14 +1907,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1874,14 +1931,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1896,14 +1955,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1918,14 +1979,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -1940,14 +2003,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E17" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1962,14 +2027,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E18" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1984,14 +2051,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -2006,14 +2075,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E20" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -2028,14 +2099,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -2050,14 +2123,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E22" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2072,12 +2147,14 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1">
         <v>0</v>
@@ -2094,7 +2171,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2118,27 +2195,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2153,11 +2229,11 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -2167,26 +2243,28 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E3" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2195,21 +2273,22 @@
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E4" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2218,21 +2297,22 @@
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E5" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2242,19 +2322,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2264,19 +2346,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2286,19 +2370,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E8" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2308,19 +2394,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2330,19 +2418,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2352,19 +2442,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2374,19 +2466,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2396,19 +2490,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2418,19 +2514,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2440,19 +2538,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2462,19 +2562,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -2489,14 +2591,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E17" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -2511,14 +2615,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2533,14 +2639,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -2555,14 +2663,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E20" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2577,14 +2687,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2595,14 +2707,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E22" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2613,12 +2727,14 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1">
         <v>0</v>
@@ -2631,7 +2747,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2661,15 +2777,14 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
@@ -2690,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2704,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2716,14 +2831,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E3" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2739,14 +2856,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E4" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2762,14 +2881,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E5" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2784,14 +2905,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2806,14 +2929,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2828,14 +2953,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2850,14 +2977,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2872,14 +3001,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2894,14 +3025,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2916,14 +3049,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E12" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2938,14 +3073,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E13" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -2960,14 +3097,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -2982,14 +3121,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3004,14 +3145,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3026,14 +3169,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E17" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3048,14 +3193,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3070,14 +3217,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -3092,14 +3241,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3114,14 +3265,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -3132,14 +3285,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E22" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3150,12 +3305,14 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1">
         <v>0</v>
@@ -3168,7 +3325,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3192,27 +3349,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3222,16 +3377,17 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -3240,498 +3396,578 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="1">
+        <v>170</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G5" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="1">
+        <v>170</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
+        <v>170</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G23" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="4" t="str">
+        <f t="shared" ref="H6:H23" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="1">
+        <v>170</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="H7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="1">
+        <v>170</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="H8" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="1">
+        <v>170</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="H9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="1">
+        <v>170</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="1">
+        <v>170</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="1">
+        <v>170</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="1">
+        <v>170</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="1">
+        <v>170</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="H14" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="1">
+        <v>170</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="H18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="1">
+        <v>170</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="H20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3740,11 +3976,11 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -3757,12 +3993,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3782,27 +4018,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3812,16 +4046,17 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -3830,498 +4065,580 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="1">
+        <v>170</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="1">
+        <v>170</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1">
+        <v>170</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="1">
+        <v>170</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="1">
+        <v>170</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="1">
+        <v>170</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1">
+        <v>170</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="1">
+        <v>170</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1">
+        <v>170</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4330,14 +4647,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4349,9 +4666,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4372,27 +4689,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4402,16 +4717,17 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -4420,498 +4736,580 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="1">
+        <v>170</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="1">
+        <v>170</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="1">
+        <v>170</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="1">
+        <v>170</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="1">
+        <v>170</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4920,14 +5318,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4939,9 +5337,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4962,27 +5360,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F22"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4992,16 +5388,17 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -5010,499 +5407,581 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="1">
+        <v>171</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="1">
+        <v>171</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="1">
+        <v>171</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="1">
+        <v>171</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="1">
+        <v>171</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="1">
+        <v>171</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="1">
+        <v>171</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="1">
+        <v>171</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="1">
+        <v>171</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="1">
+        <v>171</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="1">
+        <v>171</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="1">
+        <v>172</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="1">
+        <v>172</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>172</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5511,11 +5990,11 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5528,12 +6007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5553,27 +6032,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -5583,16 +6060,17 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -5601,499 +6079,581 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1">
+        <v>171</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1">
+        <v>171</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>172</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6102,11 +6662,11 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -6119,12 +6679,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6146,11 +6706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6162,13 +6722,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6176,10 +6736,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6187,10 +6747,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6198,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6209,10 +6769,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6220,10 +6780,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6231,10 +6791,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793AA191-63C5-479E-A75F-AD8A9A465D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -120,12 +121,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -164,12 +165,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,12 +209,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -252,12 +253,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -296,12 +297,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -340,12 +341,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="186">
   <si>
     <t>Year</t>
   </si>
@@ -544,9 +545,6 @@
     <t>519.600.000</t>
   </si>
   <si>
-    <t>306.700.000</t>
-  </si>
-  <si>
     <t>291.600.000</t>
   </si>
   <si>
@@ -664,9 +662,6 @@
     <t>249.800.000</t>
   </si>
   <si>
-    <t>212.000.000</t>
-  </si>
-  <si>
     <t>588.000.000</t>
   </si>
   <si>
@@ -724,9 +719,6 @@
     <t>134.600.000</t>
   </si>
   <si>
-    <t>67.000.000</t>
-  </si>
-  <si>
     <t>761.400.000</t>
   </si>
   <si>
@@ -796,9 +788,6 @@
     <t>19.000.000</t>
   </si>
   <si>
-    <t>17.000.000</t>
-  </si>
-  <si>
     <t>100.200.000</t>
   </si>
   <si>
@@ -853,9 +842,6 @@
     <t>122.700.000</t>
   </si>
   <si>
-    <t>102.500.000</t>
-  </si>
-  <si>
     <t>60.500.000</t>
   </si>
   <si>
@@ -905,12 +891,66 @@
   </si>
   <si>
     <t>Obv: Felipe VI</t>
+  </si>
+  <si>
+    <t>324.900.000</t>
+  </si>
+  <si>
+    <t>194.900.000</t>
+  </si>
+  <si>
+    <t>210.200.000</t>
+  </si>
+  <si>
+    <t>236.800.000</t>
+  </si>
+  <si>
+    <t>236.200.000</t>
+  </si>
+  <si>
+    <t>213.000.000</t>
+  </si>
+  <si>
+    <t>71.100.000</t>
+  </si>
+  <si>
+    <t>56.000.000</t>
+  </si>
+  <si>
+    <t>46.000.000</t>
+  </si>
+  <si>
+    <t>137.700.000</t>
+  </si>
+  <si>
+    <t>49.700.000</t>
+  </si>
+  <si>
+    <t>119.500.000</t>
+  </si>
+  <si>
+    <t>222.000.000</t>
+  </si>
+  <si>
+    <t>317.900.000</t>
+  </si>
+  <si>
+    <t>68.500.000</t>
+  </si>
+  <si>
+    <t>107.200.000</t>
+  </si>
+  <si>
+    <t>122.300.000</t>
+  </si>
+  <si>
+    <t>97.300.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1165,6 +1205,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,9 +1220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,9 +1227,9 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1303,6 +1343,110 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1327,16 +1471,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="15"/>
-    <tableColumn id="2" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1604,37 +1748,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1643,9 +1787,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1660,18 +1804,18 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>33</v>
@@ -1684,18 +1828,18 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>34</v>
@@ -1708,18 +1852,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>35</v>
@@ -1732,18 +1876,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>36</v>
@@ -1757,18 +1901,18 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>37</v>
@@ -1782,18 +1926,18 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>38</v>
@@ -1806,18 +1950,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>39</v>
@@ -1830,18 +1974,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>40</v>
@@ -1854,18 +1998,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>41</v>
@@ -1878,18 +2022,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>42</v>
@@ -1902,18 +2046,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>43</v>
@@ -1926,18 +2070,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>44</v>
@@ -1950,18 +2094,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>45</v>
@@ -1974,18 +2118,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>46</v>
@@ -1998,18 +2142,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>47</v>
@@ -2022,18 +2166,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>48</v>
@@ -2046,18 +2190,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>49</v>
@@ -2070,18 +2214,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>50</v>
@@ -2094,18 +2238,18 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>51</v>
@@ -2118,21 +2262,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2142,25 +2286,51 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" ref="G24" si="2">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2171,11 +2341,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2194,37 +2381,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D23"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
@@ -2233,9 +2420,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2250,21 +2437,21 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2274,21 +2461,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2298,21 +2485,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2322,21 +2509,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2346,21 +2533,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2370,21 +2557,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2394,21 +2581,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2418,21 +2605,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2442,21 +2629,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2466,21 +2653,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2490,21 +2677,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2514,21 +2701,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2538,21 +2725,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2562,21 +2749,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -2586,21 +2773,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -2610,21 +2797,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2634,21 +2821,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -2658,21 +2845,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2682,62 +2869,92 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="F23" s="1">
         <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ref="G23:G24" si="1">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2746,12 +2963,46 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F23">
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2770,37 +3021,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
@@ -2809,9 +3060,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2826,21 +3077,21 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2851,21 +3102,21 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2876,21 +3127,21 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2900,21 +3151,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2924,21 +3175,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2948,21 +3199,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2972,21 +3223,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2996,21 +3247,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3020,21 +3271,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3044,21 +3295,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -3068,21 +3319,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -3092,21 +3343,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -3116,21 +3367,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3140,21 +3391,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3164,21 +3415,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3188,21 +3439,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3212,21 +3463,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -3236,21 +3487,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3260,62 +3511,92 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="F23" s="1">
         <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ref="G23:G24" si="1">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3324,12 +3605,46 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F23">
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3348,37 +3663,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="A23:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
@@ -3387,9 +3702,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
@@ -3407,24 +3722,24 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3434,24 +3749,24 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3461,24 +3776,24 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3488,24 +3803,24 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -3515,24 +3830,24 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -3542,24 +3857,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3569,24 +3884,24 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -3596,24 +3911,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -3623,24 +3938,24 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -3650,24 +3965,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -3677,24 +3992,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -3704,24 +4019,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -3731,24 +4046,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3758,24 +4073,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3785,24 +4100,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3812,24 +4127,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -3839,24 +4154,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3866,24 +4181,24 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -3893,24 +4208,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3920,24 +4235,24 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -3947,28 +4262,57 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" ref="H24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3979,10 +4323,10 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3994,11 +4338,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4017,37 +4376,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
@@ -4056,9 +4415,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -4066,7 +4425,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
@@ -4076,52 +4435,52 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4132,24 +4491,24 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -4159,24 +4518,24 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4186,24 +4545,24 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4213,24 +4572,24 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4240,24 +4599,24 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4267,24 +4626,24 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4294,24 +4653,24 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -4321,24 +4680,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4348,24 +4707,24 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4375,24 +4734,24 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -4402,24 +4761,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -4429,24 +4788,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4456,24 +4815,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -4483,24 +4842,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4510,24 +4869,24 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4537,24 +4896,24 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -4564,24 +4923,24 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -4591,24 +4950,24 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4618,27 +4977,56 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4650,683 +5038,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5352,55 +5069,70 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
@@ -5418,162 +5150,161 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>171</v>
+      <c r="B3" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>171</v>
+      <c r="B4" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="15"/>
+        <v>Can exchange</v>
+      </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>171</v>
+      <c r="B5" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>171</v>
+      <c r="B6" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>171</v>
+      <c r="B7" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>171</v>
+      <c r="B8" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5583,213 +5314,213 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>171</v>
+      <c r="B9" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>171</v>
+      <c r="B10" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>171</v>
+      <c r="B11" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>171</v>
+      <c r="B12" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>171</v>
+      <c r="B13" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>171</v>
+      <c r="B14" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>171</v>
+      <c r="B15" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>171</v>
+      <c r="B16" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5799,24 +5530,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>171</v>
+      <c r="B17" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5826,24 +5557,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>171</v>
+      <c r="B18" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5853,51 +5584,51 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>172</v>
+      <c r="B19" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>172</v>
+      <c r="B20" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -5907,51 +5638,51 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>172</v>
+      <c r="B21" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>172</v>
+      <c r="B22" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5961,27 +5692,56 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>172</v>
+      <c r="B23" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5992,10 +5752,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6007,12 +5769,741 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6031,37 +6522,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B23"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
@@ -6070,9 +6561,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
@@ -6080,7 +6571,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
@@ -6090,52 +6581,52 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>167</v>
+      <c r="D3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>167</v>
+      <c r="D4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6147,24 +6638,24 @@
       <c r="I4" s="15"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>167</v>
+      <c r="D5" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -6174,24 +6665,24 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -6201,24 +6692,24 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>167</v>
+      <c r="D7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -6228,24 +6719,24 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>167</v>
+      <c r="D8" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6255,24 +6746,24 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>167</v>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6282,24 +6773,24 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>167</v>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -6309,24 +6800,24 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>167</v>
+      <c r="D11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -6336,24 +6827,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>167</v>
+      <c r="D12" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -6363,24 +6854,24 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>167</v>
+      <c r="D13" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -6390,24 +6881,24 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
+      <c r="D14" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -6417,24 +6908,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>167</v>
+      <c r="D15" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6444,24 +6935,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>167</v>
+      <c r="D16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6471,24 +6962,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>167</v>
+      <c r="D17" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6498,24 +6989,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>167</v>
+      <c r="D18" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6525,24 +7016,24 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>167</v>
+      <c r="D19" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6552,24 +7043,24 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>167</v>
+      <c r="D20" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6579,24 +7070,24 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
+      <c r="D21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6606,24 +7097,24 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>167</v>
+      <c r="D22" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6633,27 +7124,56 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>167</v>
+      <c r="D23" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6665,9 +7185,26 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6679,12 +7216,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
+  <conditionalFormatting sqref="G24">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6703,7 +7238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6713,14 +7248,14 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -6731,7 +7266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6742,7 +7277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -6753,7 +7288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -6764,7 +7299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -6775,7 +7310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -6786,7 +7321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -6799,12 +7334,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793AA191-63C5-479E-A75F-AD8A9A465D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE5089-5663-4385-809F-6EF68780B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="206">
   <si>
     <t>Year</t>
   </si>
@@ -945,13 +954,76 @@
   </si>
   <si>
     <t>97.300.000</t>
+  </si>
+  <si>
+    <t>МД</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>20c</t>
+  </si>
+  <si>
+    <t>50c</t>
+  </si>
+  <si>
+    <t>96.800.000</t>
+  </si>
+  <si>
+    <t>78.500.000</t>
+  </si>
+  <si>
+    <t>94.900.000</t>
+  </si>
+  <si>
+    <t>29.100.000</t>
+  </si>
+  <si>
+    <t>26.100.000</t>
+  </si>
+  <si>
+    <t>10.700.000</t>
+  </si>
+  <si>
+    <t>26.400.000</t>
+  </si>
+  <si>
+    <t>152.000.000</t>
+  </si>
+  <si>
+    <t>108.900.000</t>
+  </si>
+  <si>
+    <t>94.300.000</t>
+  </si>
+  <si>
+    <t>10.800.000</t>
+  </si>
+  <si>
+    <t>3.000.000</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -999,6 +1071,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1141,7 +1217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,13 +1299,94 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1343,110 +1500,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1478,9 +1531,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1749,26 +1802,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1840,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -1804,7 +1857,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -1828,7 +1881,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -1852,7 +1905,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -1876,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -1901,7 +1954,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -1926,7 +1979,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -1950,7 +2003,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -1974,7 +2027,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -1998,7 +2051,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -2022,7 +2075,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -2046,7 +2099,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -2070,7 +2123,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -2094,7 +2147,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -2118,7 +2171,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -2142,7 +2195,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -2166,7 +2219,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -2190,7 +2243,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -2214,7 +2267,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -2238,7 +2291,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -2262,7 +2315,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -2286,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -2310,7 +2363,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -2330,7 +2383,55 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" ref="G24" si="2">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G24:G25" si="2">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" ref="G26" si="3">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2340,12 +2441,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F23 F25">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F23">
+  <conditionalFormatting sqref="F3:F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2357,12 +2459,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F26">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2382,26 +2484,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2522,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -2437,7 +2539,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -2461,7 +2563,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -2485,7 +2587,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -2509,7 +2611,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -2533,7 +2635,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -2557,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -2581,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -2605,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -2629,7 +2731,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -2653,7 +2755,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -2677,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -2701,7 +2803,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -2725,7 +2827,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -2749,7 +2851,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -2773,7 +2875,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -2797,7 +2899,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -2821,7 +2923,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -2845,7 +2947,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -2869,7 +2971,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -2889,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -2909,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -2933,7 +3035,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -2954,6 +3056,54 @@
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2963,8 +3113,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2980,12 +3131,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F25">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2997,12 +3148,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F26">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3022,26 +3173,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="Q30" sqref="N28:Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3211,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -3077,7 +3228,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -3102,7 +3253,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -3127,7 +3278,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -3151,7 +3302,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -3175,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -3199,7 +3350,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -3223,7 +3374,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -3247,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -3271,7 +3422,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -3295,7 +3446,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -3319,7 +3470,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -3343,7 +3494,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -3367,7 +3518,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -3391,7 +3542,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -3415,7 +3566,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -3439,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -3463,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -3487,7 +3638,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -3511,7 +3662,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -3531,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -3551,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -3575,7 +3726,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -3596,6 +3747,54 @@
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3605,8 +3804,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3622,12 +3822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23 F25">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3639,12 +3839,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F26">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3664,25 +3864,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="A23:H24"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="P27:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3902,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -3722,7 +3922,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -3749,7 +3949,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -3776,7 +3976,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -3803,7 +4003,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -3830,7 +4030,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -3857,7 +4057,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -3884,7 +4084,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -3911,7 +4111,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -3938,7 +4138,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -3965,7 +4165,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -3992,7 +4192,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -4019,7 +4219,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -4046,7 +4246,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -4073,7 +4273,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -4100,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -4127,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -4154,7 +4354,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -4181,7 +4381,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -4208,7 +4408,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -4235,7 +4435,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -4262,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -4289,7 +4489,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -4312,7 +4512,61 @@
         <v>0</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" ref="H24" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H24:H25" si="2">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" ref="H26" si="3">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4322,8 +4576,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4338,7 +4593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4354,8 +4609,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4377,25 +4632,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="N29:S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4415,7 +4670,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -4435,7 +4690,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -4463,7 +4718,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -4491,7 +4746,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -4518,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -4545,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -4572,7 +4827,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -4599,7 +4854,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -4626,7 +4881,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -4653,7 +4908,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -4680,7 +4935,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -4707,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -4734,7 +4989,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -4761,7 +5016,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -4788,7 +5043,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -4815,7 +5070,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -4842,7 +5097,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -4869,7 +5124,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -4896,7 +5151,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -4923,7 +5178,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -4950,7 +5205,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -4977,7 +5232,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -5004,7 +5259,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -5028,6 +5283,60 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5037,8 +5346,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5054,8 +5364,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5069,8 +5379,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5092,25 +5402,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="M26:S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5440,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -5150,7 +5460,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -5178,7 +5488,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -5206,7 +5516,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -5233,7 +5543,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -5260,7 +5570,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -5287,7 +5597,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -5314,7 +5624,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -5341,7 +5651,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -5368,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -5395,7 +5705,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -5422,7 +5732,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -5449,7 +5759,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -5476,7 +5786,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -5503,7 +5813,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -5530,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -5557,7 +5867,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -5584,7 +5894,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -5611,7 +5921,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -5638,7 +5948,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -5665,7 +5975,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -5692,7 +6002,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -5719,7 +6029,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -5743,6 +6053,60 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5752,8 +6116,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5769,8 +6134,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5784,8 +6149,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5807,25 +6172,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="A24:H24"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="N24:U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5845,7 +6210,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -5865,7 +6230,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -5893,7 +6258,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -5922,7 +6287,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -5949,7 +6314,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -5976,7 +6341,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -6003,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -6030,7 +6395,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -6057,7 +6422,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -6084,7 +6449,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -6111,7 +6476,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -6138,7 +6503,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -6165,7 +6530,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -6192,7 +6557,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -6219,7 +6584,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -6246,7 +6611,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -6273,7 +6638,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -6300,7 +6665,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -6327,7 +6692,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -6354,7 +6719,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -6381,7 +6746,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -6408,7 +6773,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -6435,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -6459,6 +6824,61 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V24" s="31"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6468,8 +6888,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6484,7 +6905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6500,8 +6921,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6523,25 +6944,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27:R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6561,7 +6982,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -6581,7 +7002,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -6609,7 +7030,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -6638,7 +7059,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -6665,7 +7086,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -6692,7 +7113,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -6719,7 +7140,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -6746,7 +7167,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -6773,7 +7194,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -6800,7 +7221,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -6827,7 +7248,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -6854,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>2009</v>
       </c>
@@ -6881,7 +7302,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -6908,7 +7329,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>2011</v>
       </c>
@@ -6935,7 +7356,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>2012</v>
       </c>
@@ -6962,7 +7383,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -6989,7 +7410,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>2014</v>
       </c>
@@ -7016,7 +7437,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>2015</v>
       </c>
@@ -7043,7 +7464,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -7070,7 +7491,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>2017</v>
       </c>
@@ -7097,7 +7518,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -7124,7 +7545,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>2019</v>
       </c>
@@ -7151,7 +7572,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>2020</v>
       </c>
@@ -7176,6 +7597,145 @@
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R27" s="31">
+        <v>1</v>
+      </c>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>2021</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>198</v>
+      </c>
+      <c r="R28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>2022</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7184,8 +7744,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7200,7 +7761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7216,7 +7777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -7248,14 +7809,14 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -7266,7 +7827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -7277,7 +7838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -7288,7 +7849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -7299,7 +7860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -7310,7 +7871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -7321,7 +7882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>6</v>
       </c>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE5089-5663-4385-809F-6EF68780B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14915C8-F147-4E6E-9F06-AA11E482EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="3270" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -394,12 +394,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="199">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -956,27 +953,6 @@
     <t>97.300.000</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
-    <t>20c</t>
-  </si>
-  <si>
-    <t>50c</t>
-  </si>
-  <si>
     <t>96.800.000</t>
   </si>
   <si>
@@ -1014,6 +990,9 @@
   </si>
   <si>
     <t>1.000.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1263,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,7 +1279,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1307,6 +1286,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1491,15 +1479,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1531,9 +1510,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1804,11 +1783,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1822,38 +1801,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1862,16 +1841,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1886,16 +1865,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1910,16 +1889,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1934,16 +1913,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1959,16 +1938,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1984,16 +1963,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -2008,16 +1987,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -2032,16 +2011,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -2056,16 +2035,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -2080,16 +2059,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -2104,16 +2083,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2128,16 +2107,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -2152,16 +2131,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -2176,16 +2155,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -2200,16 +2179,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -2224,16 +2203,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -2248,16 +2227,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -2272,16 +2251,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -2296,16 +2275,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -2320,16 +2299,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2344,16 +2323,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2368,16 +2347,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2392,16 +2371,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2416,16 +2395,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2443,7 +2422,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F23 F25">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2460,11 +2439,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2490,7 +2469,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27:Q29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2504,38 +2483,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2544,16 +2523,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2568,16 +2547,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2592,16 +2571,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2616,16 +2595,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2640,16 +2619,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2664,16 +2643,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2688,16 +2667,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2712,16 +2691,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2736,16 +2715,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2760,16 +2739,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2784,16 +2763,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2808,16 +2787,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2832,16 +2811,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2856,16 +2835,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -2880,16 +2859,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -2904,16 +2883,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2928,16 +2907,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -2952,16 +2931,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2976,16 +2955,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2996,16 +2975,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3016,16 +2995,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3040,16 +3019,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3064,16 +3043,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3088,16 +3067,707 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 F25">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25 F23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F26">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26 F24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ref="G23:G24" si="1">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3136,7 +3806,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
+  <conditionalFormatting sqref="F25 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3153,698 +3823,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="N28:Q30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" ref="G23:G24" si="1">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f t="shared" ref="G25:G26" si="2">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3870,7 +3849,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T29" sqref="P27:T29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3883,42 +3862,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3927,19 +3906,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3954,19 +3933,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3981,19 +3960,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4008,19 +3987,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4035,19 +4014,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -4062,19 +4041,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -4089,19 +4068,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -4116,19 +4095,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -4143,19 +4122,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -4170,19 +4149,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -4197,19 +4176,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4224,19 +4203,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -4251,19 +4230,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4278,19 +4257,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4305,19 +4284,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4332,19 +4311,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -4359,19 +4338,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4386,19 +4365,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -4413,19 +4392,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4440,19 +4419,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4467,19 +4446,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -4494,19 +4473,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -4521,19 +4500,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -4548,19 +4527,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -4577,8 +4556,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4593,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4609,8 +4588,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4638,7 +4617,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="N29:S31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4651,42 +4630,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4695,19 +4674,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4723,19 +4702,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4751,19 +4730,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -4778,19 +4757,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4805,19 +4784,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4832,19 +4811,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4859,19 +4838,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4886,19 +4865,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -4913,19 +4892,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -4940,19 +4919,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4967,19 +4946,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -4994,19 +4973,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5021,19 +5000,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -5048,19 +5027,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5075,19 +5054,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -5102,19 +5081,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5129,19 +5108,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5156,19 +5135,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -5183,19 +5162,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -5210,19 +5189,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5237,19 +5216,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -5264,19 +5243,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -5291,19 +5270,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -5318,19 +5297,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -5348,7 +5327,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5364,8 +5343,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5379,8 +5358,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5408,7 +5387,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="M26:S28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5421,42 +5400,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5465,19 +5444,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -5493,19 +5472,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -5521,19 +5500,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -5548,19 +5527,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5575,19 +5554,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5602,19 +5581,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5629,19 +5608,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5656,19 +5635,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5683,19 +5662,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5710,19 +5689,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5737,19 +5716,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5764,19 +5743,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5791,19 +5770,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5818,19 +5797,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5845,19 +5824,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5872,19 +5851,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5899,19 +5878,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -5926,19 +5905,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -5953,19 +5932,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5980,19 +5959,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6007,19 +5986,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6034,19 +6013,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -6061,19 +6040,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -6088,19 +6067,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6118,7 +6097,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6134,8 +6113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6149,8 +6128,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6178,7 +6157,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U26" sqref="N24:U26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6191,42 +6170,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6235,19 +6214,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -6263,19 +6242,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6292,19 +6271,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -6319,19 +6298,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -6346,19 +6325,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -6373,19 +6352,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6400,19 +6379,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -6427,19 +6406,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -6454,19 +6433,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -6481,19 +6460,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -6508,19 +6487,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -6535,19 +6514,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -6562,19 +6541,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -6589,19 +6568,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6616,19 +6595,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6643,19 +6622,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6670,19 +6649,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6697,19 +6676,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -6724,19 +6703,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -6751,19 +6730,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6778,19 +6757,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6805,19 +6784,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -6826,26 +6805,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V24" s="31"/>
+      <c r="V24" s="26"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -6860,19 +6839,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6889,7 +6868,782 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23:T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6921,864 +7675,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27:R30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="str">
-        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K27" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" t="s">
-        <v>189</v>
-      </c>
-      <c r="O27" t="s">
-        <v>190</v>
-      </c>
-      <c r="P27" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R27" s="31">
-        <v>1</v>
-      </c>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J28">
-        <v>2021</v>
-      </c>
-      <c r="K28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" t="s">
-        <v>193</v>
-      </c>
-      <c r="M28" t="s">
-        <v>194</v>
-      </c>
-      <c r="N28" t="s">
-        <v>195</v>
-      </c>
-      <c r="O28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>198</v>
-      </c>
-      <c r="R28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29">
-        <v>2022</v>
-      </c>
-      <c r="K29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" t="s">
-        <v>201</v>
-      </c>
-      <c r="N29" t="s">
-        <v>202</v>
-      </c>
-      <c r="O29" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>115</v>
-      </c>
-      <c r="R29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7818,13 +7716,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7832,10 +7730,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7843,10 +7741,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7854,10 +7752,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7865,10 +7763,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7876,10 +7774,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7887,10 +7785,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14915C8-F147-4E6E-9F06-AA11E482EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA577D-1805-4988-9873-5C6CA2ECF0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="3270" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B47"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2287,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2465,11 +2465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2703,7 +2703,7 @@
         <v>58</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2919,11 +2919,11 @@
         <v>67</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3158,7 +3158,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3849,7 +3849,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4380,11 +4380,11 @@
         <v>107</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4617,7 +4617,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4880,7 +4880,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4907,11 +4907,11 @@
         <v>116</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5177,7 +5177,7 @@
         <v>122</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6925,11 +6925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23:T33"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA577D-1805-4988-9873-5C6CA2ECF0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3FC67-EB1E-4A61-A142-CBF7EEB73CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2443,7 +2443,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2469,7 +2469,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2775,7 +2775,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3115,7 +3115,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3132,7 +3132,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3806,7 +3806,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3823,7 +3823,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4556,7 +4556,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -4588,7 +4588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -5343,7 +5343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -5358,7 +5358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6113,7 +6113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6128,7 +6128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6868,7 +6868,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6900,7 +6900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -7643,7 +7643,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -7675,7 +7675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3FC67-EB1E-4A61-A142-CBF7EEB73CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB561F0C-38B2-478F-9131-00C6C12178BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2443,7 +2443,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2465,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3115,7 +3115,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
+  <conditionalFormatting sqref="F25 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3132,7 +3132,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3154,11 +3154,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3722,7 +3722,7 @@
         <v>172</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3806,7 +3806,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
+  <conditionalFormatting sqref="F25 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3823,7 +3823,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4556,7 +4556,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -4588,7 +4588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -5343,7 +5343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -5358,7 +5358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6113,7 +6113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6128,7 +6128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6868,7 +6868,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6900,7 +6900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -7643,7 +7643,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -7675,7 +7675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB561F0C-38B2-478F-9131-00C6C12178BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6406498-B497-4C9F-A18C-EAE7CE8AC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="850" yWindow="2860" windowWidth="28720" windowHeight="17700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="200">
   <si>
     <t>Year</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1190,13 +1193,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,21 +1327,32 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1350,6 +1409,23 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1510,9 +1586,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1784,10 +1860,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1852,7 +1928,7 @@
       <c r="E3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -1876,7 +1952,7 @@
       <c r="E4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="33">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -1900,7 +1976,7 @@
       <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="33">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
@@ -1924,7 +2000,7 @@
       <c r="E6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="33">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="str">
@@ -1949,7 +2025,7 @@
       <c r="E7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="33">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -1958,7 +2034,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -1974,7 +2050,7 @@
       <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="35">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -1998,7 +2074,7 @@
       <c r="E9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="32">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="str">
@@ -2022,7 +2098,7 @@
       <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="33">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="str">
@@ -2046,7 +2122,7 @@
       <c r="E11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="33">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="str">
@@ -2070,7 +2146,7 @@
       <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="33">
         <v>3</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -2094,7 +2170,7 @@
       <c r="E13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="33">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="str">
@@ -2102,7 +2178,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -2118,7 +2194,7 @@
       <c r="E14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="34">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -2142,7 +2218,7 @@
       <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="32">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -2166,7 +2242,7 @@
       <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="33">
         <v>3</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -2190,7 +2266,7 @@
       <c r="E17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="33">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -2214,7 +2290,7 @@
       <c r="E18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="33">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="str">
@@ -2238,7 +2314,7 @@
       <c r="E19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="33">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2246,7 +2322,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -2262,7 +2338,7 @@
       <c r="E20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="34">
         <v>3</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -2421,8 +2497,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F23 F25">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F25 F3:F23">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2439,11 +2515,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2469,7 +2545,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2638,7 +2714,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -2654,7 +2730,7 @@
       <c r="E8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="34">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -2782,7 +2858,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>2010</v>
       </c>
@@ -2798,7 +2874,7 @@
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -2926,7 +3002,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>2016</v>
       </c>
@@ -2942,7 +3018,7 @@
       <c r="E20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="34">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -3062,7 +3138,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <v>2022</v>
       </c>
@@ -3078,7 +3154,7 @@
       <c r="E26" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="34">
         <v>0</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -3093,13 +3169,13 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F22">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3110,29 +3186,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="F21:F26">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F21:F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3154,11 +3213,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3305,7 +3364,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -3321,7 +3380,7 @@
       <c r="E7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="34">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -3425,7 +3484,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -3441,7 +3500,7 @@
       <c r="E12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="34">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -3545,7 +3604,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -3561,7 +3620,7 @@
       <c r="E17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="34">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -3661,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -3677,7 +3736,7 @@
       <c r="E22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3785,7 +3844,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3802,11 +3861,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23 F25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3819,11 +3878,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3849,7 +3908,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4009,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -4028,7 +4087,7 @@
       <c r="F7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -4144,7 +4203,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -4163,7 +4222,7 @@
       <c r="F12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -4279,7 +4338,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -4298,7 +4357,7 @@
       <c r="F17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -4414,7 +4473,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -4433,7 +4492,7 @@
       <c r="F22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -4556,8 +4615,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4572,7 +4631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4588,8 +4647,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4617,7 +4676,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4723,7 +4782,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
@@ -4779,7 +4840,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -4798,7 +4859,7 @@
       <c r="F7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="34">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -4914,7 +4975,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -4933,7 +4994,7 @@
       <c r="F12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -5049,7 +5110,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -5068,7 +5129,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="34">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -5184,7 +5245,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -5203,7 +5264,7 @@
       <c r="F22" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -5327,7 +5388,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5343,8 +5404,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5358,8 +5419,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5387,7 +5448,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5549,7 +5610,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -5568,7 +5629,7 @@
       <c r="F7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="34">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -5684,7 +5745,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -5703,7 +5764,7 @@
       <c r="F12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -5819,7 +5880,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -5838,7 +5899,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -5954,7 +6015,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -5973,7 +6034,7 @@
       <c r="F22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -6097,7 +6158,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6113,8 +6174,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6128,8 +6189,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6157,7 +6218,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6229,7 +6290,7 @@
         <v>132</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
@@ -6257,7 +6318,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6320,7 +6381,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -6339,7 +6400,7 @@
       <c r="F7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -6455,7 +6516,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>2008</v>
       </c>
@@ -6474,7 +6535,7 @@
       <c r="F12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="34">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -6590,7 +6651,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>2013</v>
       </c>
@@ -6609,7 +6670,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -6725,7 +6786,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>2018</v>
       </c>
@@ -6744,7 +6805,7 @@
       <c r="F22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -6868,8 +6929,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6884,7 +6945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6900,8 +6961,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6925,11 +6986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7247,7 +7308,7 @@
         <v>155</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7643,8 +7704,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7659,7 +7720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7675,8 +7736,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G24 G26">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6406498-B497-4C9F-A18C-EAE7CE8AC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F2F6D5-E67A-43C6-817C-25EA9FEC77CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="2860" windowWidth="28720" windowHeight="17700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1312,6 +1312,18 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,32 +1339,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="25">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1401,31 +1402,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1586,9 +1562,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="10" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1877,16 +1853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1896,8 +1872,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1904,7 @@
       <c r="E3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -1952,7 +1928,7 @@
       <c r="E4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="28">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -1976,7 +1952,7 @@
       <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="28">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
@@ -2000,7 +1976,7 @@
       <c r="E6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="28">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="str">
@@ -2025,7 +2001,7 @@
       <c r="E7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="28">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -2050,7 +2026,7 @@
       <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="30">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -2074,7 +2050,7 @@
       <c r="E9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="str">
@@ -2098,7 +2074,7 @@
       <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="28">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="str">
@@ -2122,7 +2098,7 @@
       <c r="E11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="28">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="str">
@@ -2146,7 +2122,7 @@
       <c r="E12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="28">
         <v>3</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -2170,7 +2146,7 @@
       <c r="E13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="28">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="str">
@@ -2194,7 +2170,7 @@
       <c r="E14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -2218,7 +2194,7 @@
       <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="27">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -2242,7 +2218,7 @@
       <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="28">
         <v>3</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -2266,7 +2242,7 @@
       <c r="E17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -2290,7 +2266,7 @@
       <c r="E18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="28">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="str">
@@ -2314,7 +2290,7 @@
       <c r="E19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="28">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -2338,7 +2314,7 @@
       <c r="E20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="29">
         <v>3</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -2498,7 +2474,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F25 F3:F23">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2515,11 +2491,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2559,16 +2535,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2578,8 +2554,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2706,7 @@
       <c r="E8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="str">
@@ -2874,7 +2850,7 @@
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -3018,7 +2994,7 @@
       <c r="E20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="29">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -3154,7 +3130,7 @@
       <c r="E26" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="29">
         <v>0</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -3170,7 +3146,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3187,7 +3163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F26">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3213,11 +3189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3231,16 +3207,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3250,8 +3226,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3356,7 @@
       <c r="E7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="str">
@@ -3405,7 +3381,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3500,7 +3476,7 @@
       <c r="E12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="str">
@@ -3620,7 +3596,7 @@
       <c r="E17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="29">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="str">
@@ -3736,7 +3712,7 @@
       <c r="E22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +3820,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3861,11 +3837,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23 F25">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
+  <conditionalFormatting sqref="F25 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3878,11 +3854,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3921,17 +3897,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3941,8 +3917,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4063,7 @@
       <c r="F7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -4222,7 +4198,7 @@
       <c r="F12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -4357,7 +4333,7 @@
       <c r="F17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -4492,7 +4468,7 @@
       <c r="F22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="29">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -4615,8 +4591,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4631,7 +4607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4647,8 +4623,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4689,17 +4665,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
@@ -4709,8 +4685,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4859,7 +4835,7 @@
       <c r="F7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -4994,7 +4970,7 @@
       <c r="F12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -5129,7 +5105,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -5264,7 +5240,7 @@
       <c r="F22" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="29">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -5388,7 +5364,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5404,8 +5380,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5419,8 +5395,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5461,17 +5437,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
@@ -5481,8 +5457,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5629,7 +5605,7 @@
       <c r="F7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -5764,7 +5740,7 @@
       <c r="F12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -5899,7 +5875,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -6034,7 +6010,7 @@
       <c r="F22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="29">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -6158,7 +6134,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6174,8 +6150,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6189,8 +6165,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6231,17 +6207,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
@@ -6251,8 +6227,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6400,7 +6376,7 @@
       <c r="F7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -6535,7 +6511,7 @@
       <c r="F12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -6670,7 +6646,7 @@
       <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="str">
@@ -6805,7 +6781,7 @@
       <c r="F22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="29">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
@@ -6929,8 +6905,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6945,7 +6921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6961,8 +6937,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6986,7 +6962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7003,17 +6979,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
@@ -7023,8 +6999,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7704,8 +7680,8 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7720,7 +7696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7736,8 +7712,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F2F6D5-E67A-43C6-817C-25EA9FEC77CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1215E6-D266-44F5-9A1C-14871D02846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="200">
   <si>
     <t>Year</t>
   </si>
@@ -2495,7 +2495,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3189,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3841,7 +3841,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F23">
+  <conditionalFormatting sqref="F23 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3858,7 +3858,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
+  <conditionalFormatting sqref="F24 F26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4591,7 +4591,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -4623,7 +4623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -5380,7 +5380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -5395,7 +5395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6150,7 +6150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6165,7 +6165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6905,7 +6905,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -6937,7 +6937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
@@ -6962,11 +6962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7670,6 +7670,29 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ref="H27" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
     </row>
@@ -7680,7 +7703,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25 G27">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -7712,7 +7735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26 G24">
+  <conditionalFormatting sqref="G24 G26">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>

--- a/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1215E6-D266-44F5-9A1C-14871D02846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7E59C-CBB2-46DF-B658-5FE9B3A526FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -405,12 +415,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -884,9 +888,6 @@
     <t>Obv: With mint logo - "M"</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Obv: Cathedral of Santiago de Compostella</t>
   </si>
   <si>
@@ -996,6 +997,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -1057,6 +1067,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1244,7 +1256,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,6 +1339,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,15 +1361,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1531,6 +1537,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1562,9 +1577,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="23" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1835,56 +1850,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1893,22 +1908,22 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G5" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1917,22 +1932,22 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1941,22 +1956,22 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1965,22 +1980,22 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6:G23" si="1">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I6" s="6"/>
@@ -1990,22 +2005,22 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="28">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="I7" s="6"/>
@@ -2015,22 +2030,22 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="30">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F8&gt;1,F8&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2039,22 +2054,22 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="27">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2063,22 +2078,22 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="28">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2087,22 +2102,22 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="28">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2111,22 +2126,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="28">
         <v>3</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F12&gt;1,F12&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2135,22 +2150,22 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="28">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2159,22 +2174,22 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="29">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2183,22 +2198,22 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="27">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2207,22 +2222,22 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="28">
         <v>3</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2231,22 +2246,22 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="28">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2255,22 +2270,22 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="28">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2279,22 +2294,22 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="28">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2303,22 +2318,22 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="29">
         <v>3</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2327,22 +2342,22 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
@@ -2351,22 +2366,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2375,22 +2390,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2399,22 +2414,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" ref="G24:G25" si="2">IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F24&gt;1,F24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2423,22 +2438,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2447,34 +2462,34 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f t="shared" ref="G26" si="3">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F25 F3:F23">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,11 +2506,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2521,52 +2536,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2575,16 +2590,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2599,16 +2614,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -2623,16 +2638,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2647,16 +2662,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2671,16 +2686,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2695,16 +2710,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="29">
         <v>0</v>
@@ -2719,16 +2734,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2743,16 +2758,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -2767,16 +2782,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2791,16 +2806,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2815,16 +2830,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2839,16 +2854,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="29">
         <v>1</v>
@@ -2863,16 +2878,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2887,16 +2902,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -2911,16 +2926,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -2935,16 +2950,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2959,16 +2974,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2983,16 +2998,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="29">
         <v>1</v>
@@ -3007,16 +3022,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -3027,16 +3042,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3047,16 +3062,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3071,16 +3086,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3095,16 +3110,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3119,16 +3134,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F26" s="29">
         <v>0</v>
@@ -3139,14 +3154,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3163,7 +3178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F26">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3193,52 +3208,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3247,16 +3262,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3272,16 +3287,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -3297,16 +3312,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3321,16 +3336,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3345,16 +3360,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="29">
         <v>0</v>
@@ -3369,16 +3384,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -3393,16 +3408,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -3417,16 +3432,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3441,16 +3456,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -3465,16 +3480,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="29">
         <v>1</v>
@@ -3489,16 +3504,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -3513,16 +3528,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -3537,16 +3552,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3561,16 +3576,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3585,16 +3600,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="29">
         <v>0</v>
@@ -3609,16 +3624,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3633,16 +3648,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -3657,16 +3672,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3681,16 +3696,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -3701,16 +3716,16 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F22" s="29">
         <v>0</v>
@@ -3721,16 +3736,16 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3745,16 +3760,16 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -3769,16 +3784,16 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3793,16 +3808,16 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3813,14 +3828,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3837,11 +3852,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23 F25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F25">
+  <conditionalFormatting sqref="F25 F23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3854,11 +3869,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
+  <conditionalFormatting sqref="F26 F24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3884,55 +3899,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3941,19 +3957,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3968,19 +3984,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3995,19 +4011,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4022,19 +4038,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4049,19 +4065,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="29">
         <v>2</v>
@@ -4076,19 +4092,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -4103,19 +4119,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -4130,19 +4146,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -4157,19 +4173,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -4184,19 +4200,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="29">
         <v>2</v>
@@ -4211,19 +4227,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4238,19 +4254,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -4265,19 +4281,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -4292,19 +4308,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -4319,19 +4335,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -4346,19 +4362,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -4373,19 +4389,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4400,19 +4416,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -4427,19 +4443,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4454,19 +4470,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G22" s="29">
         <v>0</v>
@@ -4481,19 +4497,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -4508,19 +4524,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -4535,19 +4551,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -4562,19 +4578,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -4585,14 +4601,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -4607,7 +4623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4623,8 +4639,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4652,55 +4668,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4709,19 +4726,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -4737,19 +4754,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4759,7 +4776,7 @@
         <v/>
       </c>
       <c r="J4" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4767,19 +4784,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -4794,19 +4811,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4821,19 +4838,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="29">
         <v>0</v>
@@ -4848,19 +4865,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4875,19 +4892,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -4902,19 +4919,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -4929,19 +4946,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -4956,19 +4973,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
@@ -4983,19 +5000,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5010,19 +5027,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5037,19 +5054,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -5064,19 +5081,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5091,19 +5108,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="29">
         <v>1</v>
@@ -5118,19 +5135,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5145,19 +5162,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5172,19 +5189,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -5199,19 +5216,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -5226,19 +5243,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G22" s="29">
         <v>0</v>
@@ -5253,19 +5270,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -5280,19 +5297,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -5307,19 +5324,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -5334,19 +5351,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -5357,14 +5374,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5380,8 +5397,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5395,8 +5412,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5424,55 +5441,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5481,19 +5499,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -5509,19 +5527,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -5537,19 +5555,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -5564,19 +5582,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5591,19 +5609,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G7" s="29">
         <v>0</v>
@@ -5618,19 +5636,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5645,19 +5663,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5672,19 +5690,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5699,19 +5717,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5726,19 +5744,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
@@ -5753,19 +5771,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5780,19 +5798,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5807,19 +5825,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5834,19 +5852,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5861,19 +5879,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -5888,19 +5906,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5915,19 +5933,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -5942,19 +5960,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -5969,19 +5987,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5996,19 +6014,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G22" s="29">
         <v>0</v>
@@ -6023,19 +6041,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6050,19 +6068,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -6077,19 +6095,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -6104,19 +6122,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6127,14 +6145,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6150,8 +6168,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G25 G23">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6165,8 +6183,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6194,55 +6212,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6251,19 +6270,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6279,19 +6298,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -6308,19 +6327,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -6335,19 +6354,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -6362,19 +6381,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G7" s="29">
         <v>1</v>
@@ -6389,19 +6408,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6416,19 +6435,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -6443,19 +6462,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -6470,19 +6489,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -6497,19 +6516,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
@@ -6524,19 +6543,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -6551,19 +6570,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -6578,19 +6597,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -6605,19 +6624,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6632,19 +6651,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -6659,19 +6678,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6686,19 +6705,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6713,19 +6732,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -6740,19 +6759,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -6767,19 +6786,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G22" s="29">
         <v>0</v>
@@ -6794,19 +6813,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6821,19 +6840,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -6849,19 +6868,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -6876,19 +6895,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6899,811 +6918,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="str">
-        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="str">
-        <f t="shared" ref="H27" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G23 G25 G27">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
@@ -7735,8 +6956,807 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G26">
+  <conditionalFormatting sqref="G26 G24">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ref="H25:H26" si="1">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ref="H27" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G25 G23 G27">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26 G24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7776,13 +7796,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7790,10 +7810,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7801,10 +7821,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7812,10 +7832,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7823,10 +7843,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7834,10 +7854,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7845,10 +7865,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
